--- a/artfynd/A 11100-2025 artfynd.xlsx
+++ b/artfynd/A 11100-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1504,6 +1504,116 @@
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131236926</v>
+      </c>
+      <c r="B10" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Sydost Björkliden, Ög</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>567473</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6510086</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Simonstorp</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Flera grova aspar lämpliga för bobygge i anslutning. Varav åtminstone två med äldre bohål.</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 11100-2025 artfynd.xlsx
+++ b/artfynd/A 11100-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1614,6 +1614,111 @@
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131289566</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Strax öster om Björkliden, Ög</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>567450</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6510180</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Simonstorp</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
